--- a/Annexe 1 _ CCP1 DWWM.xlsx
+++ b/Annexe 1 _ CCP1 DWWM.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RLDeveloppement\digital-dwwm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67BEE49-06AD-4A9C-90B5-4879753B4AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Compilation" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <sheet name="Réaliser des interfaces utilisa" sheetId="6" r:id="rId6"/>
     <sheet name="Développer la partie dynamique " sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="228">
   <si>
     <t>Code module</t>
   </si>
@@ -999,11 +993,14 @@
 - Jquery, Typescript, Three.js...
 - Angular, React, Vue.js...</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="10"/>
@@ -1668,7 +1665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1943,7 +1940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2085,7 +2082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2298,13 +2295,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2587,14 +2584,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:G45"/>
+  <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2605,7 +2602,7 @@
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="31.5">
+    <row r="2" spans="1:8" ht="31.5">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -2628,7 +2625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="76" t="s">
         <v>21</v>
       </c>
@@ -2649,8 +2646,11 @@
         <f>SUM(F3:F16)</f>
         <v>0.35416666666666663</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75">
+      <c r="H3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="72"/>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
@@ -2661,8 +2661,11 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G4" s="72"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.75">
+      <c r="H4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="72"/>
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
@@ -2673,20 +2676,26 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G5" s="72"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.75">
+      <c r="H5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="51">
       <c r="A6" s="72"/>
       <c r="B6" s="72"/>
       <c r="C6" s="72"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="27" t="s">
         <v>91</v>
       </c>
       <c r="F6" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G6" s="72"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.75">
+      <c r="H6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75">
       <c r="A7" s="72"/>
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
@@ -2697,8 +2706,11 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G7" s="72"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.75">
+      <c r="H7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75">
       <c r="A8" s="72"/>
       <c r="B8" s="72"/>
       <c r="C8" s="74"/>
@@ -2710,8 +2722,11 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G8" s="72"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75">
+      <c r="H8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="72"/>
       <c r="B9" s="72"/>
       <c r="C9" s="83" t="s">
@@ -2724,8 +2739,11 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G9" s="72"/>
-    </row>
-    <row r="10" spans="1:7" ht="153">
+      <c r="H9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="153">
       <c r="A10" s="72"/>
       <c r="B10" s="72"/>
       <c r="C10" s="72"/>
@@ -2736,8 +2754,11 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G10" s="72"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.75">
+      <c r="H10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75">
       <c r="A11" s="72"/>
       <c r="B11" s="72"/>
       <c r="C11" s="72"/>
@@ -2748,8 +2769,11 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G11" s="72"/>
-    </row>
-    <row r="12" spans="1:7" ht="76.5">
+      <c r="H11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="76.5">
       <c r="A12" s="72"/>
       <c r="B12" s="72"/>
       <c r="C12" s="81" t="s">
@@ -2764,7 +2788,7 @@
       </c>
       <c r="G12" s="72"/>
     </row>
-    <row r="13" spans="1:7" ht="25.5">
+    <row r="13" spans="1:8" ht="25.5">
       <c r="A13" s="72"/>
       <c r="B13" s="72"/>
       <c r="C13" s="72"/>
@@ -2776,7 +2800,7 @@
       </c>
       <c r="G13" s="72"/>
     </row>
-    <row r="14" spans="1:7" ht="25.5">
+    <row r="14" spans="1:8" ht="25.5">
       <c r="A14" s="72"/>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
@@ -2788,7 +2812,7 @@
       </c>
       <c r="G14" s="72"/>
     </row>
-    <row r="15" spans="1:7" ht="89.25">
+    <row r="15" spans="1:8" ht="89.25">
       <c r="A15" s="72"/>
       <c r="B15" s="72"/>
       <c r="C15" s="72"/>
@@ -2800,7 +2824,7 @@
       </c>
       <c r="G15" s="72"/>
     </row>
-    <row r="16" spans="1:7" ht="63.75">
+    <row r="16" spans="1:8" ht="63.75">
       <c r="A16" s="74"/>
       <c r="B16" s="74"/>
       <c r="C16" s="74"/>
@@ -3018,7 +3042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3375,14 +3399,14 @@
     <mergeCell ref="C17:C20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="E16" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4490,15 +4514,15 @@
     <mergeCell ref="C32:C39"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="E26" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="E35" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E12" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="E19" r:id="rId7"/>
+    <hyperlink ref="E26" r:id="rId8"/>
+    <hyperlink ref="E35" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
